--- a/product_urls.xlsx
+++ b/product_urls.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>url</t>
@@ -28,196 +28,412 @@
     <t>rating</t>
   </si>
   <si>
-    <t>num_of_ratings</t>
-  </si>
-  <si>
-    <t>LEGO Everyone is Awesome Set 40516</t>
-  </si>
-  <si>
-    <t>LEGO Marvel Super Heroes S.H.I.E.L.D. - Maria Hill (76042)</t>
-  </si>
-  <si>
-    <t>LEGO Parts - Crocodile/Aligator. Dark green with yellow eyes. by LEGO</t>
-  </si>
-  <si>
-    <t>LEGO 76239 DC Batman Batmobile Tumbler: Scarecrow Showdown Toy Car with Batman and Scarecrow Minifigures, for Kids Age 8</t>
+    <t>page</t>
+  </si>
+  <si>
+    <t>LEGO 40220 Blocks</t>
+  </si>
+  <si>
+    <t>Lego Prince of Persia Mini Figure - Skeleton</t>
+  </si>
+  <si>
+    <t>LEGO Jurassic World (75936) Confidential, Bunt</t>
+  </si>
+  <si>
+    <t>LEGO 75301 Star Wars Luke Skywalker's X-Wing Fighter Toy for Kids Age 9+ with Princess Leia Minifigure and R2-D2 Droid Figure</t>
+  </si>
+  <si>
+    <t>LEGO 42110 Technic Land Rover Defender Off Road 4x4 Car, Exclusive Collectible Model, Advanced Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 10281 Creator Expert Bonsai Tree Set for Adults, Home Décor DIY Projects, Botanical Collection</t>
   </si>
   <si>
     <t>LEGO 42123 Technic McLaren Senna GTR Racing Sports Car Collectible Model, Vehicle Construction Set</t>
   </si>
   <si>
-    <t>LEGO 10281 Creator Expert Bonsai Tree Set for Adults, Home Décor DIY Projects, Botanical Collection</t>
-  </si>
-  <si>
-    <t>LEGO 41445 Friends Vet Clinic Ambulance Toy Car, Animal Rescue Playset with Olivia and Emma Minidolls</t>
-  </si>
-  <si>
-    <t>LEGO 42110 Technic Land Rover Defender Off Road 4x4 Car, Exclusive Collectible Model, Advanced Building Set</t>
+    <t>LEGO 75957 Harry Potter - The Knight Bus (Triple-decker Set with Minifigures)</t>
+  </si>
+  <si>
+    <t>LEGO 60281 City Fire Rescue Helicopter Toy with Motorbike, Firefighter and Pilot Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 41679 Friends Forest House Toy, Treehouse Adventure Set with Mia Mini Doll and Kayak Boat Model</t>
+  </si>
+  <si>
+    <t>LEGO 76191 Marvel Infinity Gauntlet Building Set, Thanos Glove Model for Adults, Collectible Avengers Gift</t>
+  </si>
+  <si>
+    <t>LEGO 76169 Super Heroes Marvel Avengers Thor Mech Armour Set, Action Figure Toy with Thor Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 41441 Friends Horse Training and Trailer Building Set with Stables and Car, Toy for Kids 4+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 75318 Star Wars: The Mandalorian The Child Baby Yoda Figure Gift Idea</t>
   </si>
   <si>
     <t>LEGO 60303 City Advent Calendar 2021 Mini Builds Set, Christmas Toys for Kids Age 5 with Play Board &amp; 6 Minifigures</t>
   </si>
   <si>
+    <t>LEGO 31088 Creator Deep Sea Creatures: Shark, Crab and Squid or Angler Fish, 3 in 1 Seaside Adventures Building Set, Toys for Kids 7 Years Old and Older</t>
+  </si>
+  <si>
+    <t>LEGO 60276 City Police Prisoner Transport Tow Truck Toy, Police Station Expansion Set</t>
+  </si>
+  <si>
+    <t>LEGO 60283 City Great Vehicles Holiday Camper Van Toy, Motorhome Car Playset, Summer Holidays Toys</t>
+  </si>
+  <si>
     <t>LEGO 42121 Technic Heavy-Duty Excavator Toy, 2 in 1 Model, Construction Vehicle Building Set for Kids 8 Years Old</t>
   </si>
   <si>
-    <t>LEGO 60281 City Fire Rescue Helicopter Toy with Motorbike, Firefighter and Pilot Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 60283 City Great Vehicles Holiday Camper Van Toy, Motorhome Car Playset, Summer Holidays Toys</t>
-  </si>
-  <si>
-    <t>LEGO 76169 Super Heroes Marvel Avengers Thor Mech Armour Set, Action Figure Toy with Thor Minifigure</t>
-  </si>
-  <si>
-    <t>LEGO 76195 Marvel Spider-Man’s Drone Duel Building Toy for Kids Age 7 , Superhero Birthday Idea</t>
+    <t>LEGO 42119 Technic Monster Jam Max-D Truck Toy to Quad Bike Pull Back 2 in 1 Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 75312 Star Wars Boba Fett’s Starship Building Toy for Kids Age 9 , Mandalorian Model Set with 2 Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 75314 Star Wars The Bad Batch Attack Shuttle Building Toy for Kids Age 9 , Set with 5 Clones Minifigures &amp; Gonk Droid Figure</t>
   </si>
   <si>
     <t>LEGO 21159 Minecraft The Pillager Outpost Action Figures Building Set, Iron Golem Adventure Toy for Kids 7 Years Old</t>
   </si>
   <si>
-    <t>LEGO 75314 Star Wars The Bad Batch Attack Shuttle Building Toy for Kids Age 9 , Set with 5 Clones Minifigures &amp; Gonk Droid Figure</t>
-  </si>
-  <si>
-    <t>LEGO 75301 Star Wars Luke Skywalker's X-Wing Fighter Toy for Kids Age 9+ with Princess Leia Minifigure and R2-D2 Droid Figure</t>
-  </si>
-  <si>
-    <t>LEGO 75312 Star Wars Boba Fett’s Starship Building Toy for Kids Age 9 , Mandalorian Model Set with 2 Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 75311 Star Wars Imperial Armoured Marauder Building Toy for Kids Age 8 , Mandalorian Model Set with 4 Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 75957 Harry Potter - The Knight Bus (Triple-decker Set with Minifigures)</t>
-  </si>
-  <si>
-    <t>LEGO 76940 Jurassic World T. rex Dinosaur Fossil Exhibition Toy Playset for Kids Age 7+, Skeleton Model Building Set</t>
+    <t>LEGO 60288 City Great Vehicles Race Buggy Transporter  Toy Truck with Trailer and Steerable Baja Race Car</t>
+  </si>
+  <si>
+    <t>LEGO 42122 Technic Jeep Wrangler 4x4 Toy Car, Off Roader SUV Model Building Set</t>
   </si>
   <si>
     <t>LEGO 21166 Minecraft The Abandoned Mine Building Set, Zombie Cave with Slime, Steve and Spider Figures</t>
   </si>
   <si>
+    <t>LEGO 76387 Harry Potter Hogwarts: Fluffy Encounter Castle Toy Building Set, with 20th Anniversary Golden Minifigure &amp; 3-Headed Dog Figure</t>
+  </si>
+  <si>
     <t>LEGO 21034 Architecture Skyline Model Building Set, London Eye, Big Ben, Tower Bridge Collection, Construction Collectible Gift Idea</t>
   </si>
   <si>
-    <t>LEGO 60288 City Great Vehicles Race Buggy Transporter  Toy Truck with Trailer and Steerable Baja Race Car</t>
-  </si>
-  <si>
-    <t>LEGO 60276 City Police Prisoner Transport Tow Truck Toy, Police Station Expansion Set</t>
+    <t>LEGO 10692 Classic Creative Bricks, Classic Colorful Building Set with Storage Box (221 Pieces)</t>
+  </si>
+  <si>
+    <t>LEGO 76196 Marvel The Avengers Advent Calendar 2021 Buildable Toys with Spider-Man and Iron Man for Kids Aged 7 Idea</t>
+  </si>
+  <si>
+    <t>LEGO 75307 Star Wars Advent Calendar 2021 Toy Building Set, The Mandalorian for Kids Age 6 with Baby Yoda Minifigure</t>
   </si>
   <si>
     <t>LEGO 76186 Marvel Black Panther Dragon Flyer, Avengers Building Toy with 3 Minifigures, Super Heroes Set</t>
   </si>
   <si>
-    <t>LEGO 31088 Creator Deep Sea Creatures: Shark, Crab and Squid or Angler Fish, 3 in 1 Seaside Adventures Building Set, Toys for Kids 7 Years Old and Older</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A04895281IWVRTD8UPZM2&amp;url=%2FLEGO-Everyone-Awesome-Set-40516%2Fdp%2FB09698FGPL%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634474215%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-1-spons%26psc%3D1%26smid%3DA1QD8OYV8FUXRI&amp;qualifier=1634474215&amp;id=4928294116655482&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A01423763NPOLBBDWQ5ZI&amp;url=%2FLEGO-Marvel-Super-Heroes-S-H-I%2Fdp%2FB0100ZTRPI%2Fref%3Dsr_1_2_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634474215%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1634474215&amp;id=4928294116655482&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A0225253Q9GWSJDGFCHV&amp;url=%2FLEGO-Parts-Crocodile-Aligator-yellow%2Fdp%2FB013S76TL0%2Fref%3Dsr_1_3_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634474215%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-3-spons%26psc%3D1%26smid%3DA1HZWI0Z8OAQOE&amp;qualifier=1634474215&amp;id=4928294116655482&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76239-Batman-Batmobile-Tumbler/dp/B08WX6R3KY/ref=sr_1_4?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42123-Technic-Collectible-Construction/dp/B08G4293BD/ref=sr_1_5?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-10281-LEGO-10281-Creator-Expert-Bonsai-Tree-Set-for-Adults-Home-D%C3%A9cor-DIY-Projects-Botanical-Collection/dp/B08G4PCG8F/ref=sr_1_6?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41445-Friends-Ambulance-Minidolls/dp/B08G4DRGBQ/ref=sr_1_7?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42110-Toy-Multicolour/dp/B07P2GQDQ6/ref=sr_1_8?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60303-Calendar-Christmas-Minifigures/dp/B08X1B622Z/ref=sr_1_9?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-9</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42121-Heavy-Duty-Excavator-Construction/dp/B08G4CKL16/ref=sr_1_10?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-10</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60281-Helicopter-Firefighter-Minifigures/dp/B08G4D3P1T/ref=sr_1_11?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60283-Vehicles-Motorhome-Holidays/dp/B08G4M8J87/ref=sr_1_12?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76169-Heroes-Avengers-Minifigure/dp/B08G4B5Z97/ref=sr_1_13?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-13</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76195-tbd-LSH-2021/dp/B08W9HBYV7/ref=sr_1_14?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-14</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21159-LEGO-21159-Minecraft-The-Pillager-Outpost-Action-Figures-Building-Set-Iron-Golem-Adventure-Toy-for-Kids-7-Years-Old/dp/B07WC1VFZH/ref=sr_1_15?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-15</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75314-Shuttle-Building-Minifigures/dp/B08WWKYKT9/ref=sr_1_16?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-16</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75301-Skywalkers-Fighter-Princess/dp/B08G4GP34B/ref=sr_1_17?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-17</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75312-Starship-Mandalorian-Minifigures/dp/B08WWTPDG2/ref=sr_1_18?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75311-Imperial-Mandalorian-Minifigures/dp/B08WB22HQY/ref=sr_1_19?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75957-Triple-decker-Collectible-Minifigures/dp/B07KX54VHF/ref=sr_1_20?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-20</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-tbd-dino-1-2021/dp/B08W9TBGLJ/ref=sr_1_21?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-21</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21166-Minecraft-Abandoned-Building/dp/B085WV4WST/ref=sr_1_22?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-22</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21034-Architecture-Skyline-Building/dp/B01J41MPF8/ref=sr_1_23?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-23</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60288-Vehicles-Transporter-Steerable/dp/B08G4LMHB4/ref=sr_1_24?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-24</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60276-Prisoner-Transport-Expansion/dp/B08G4PBFLQ/ref=sr_1_25?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76186-Avengers-Building-Minifigures/dp/B08W8KPVKC/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-31088-Creatures-Building-Colourful/dp/B07FNS6J7R/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634474215&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
+    <t>LEGO 42111 Technic Fast &amp; Furious Dom's Dodge Charger Racing Car Model Iconic Collector's Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 76190 Marvel Iron Man Monger Mayhem Set, Avengers Mech Building Toy, Action Figure for Kids 9+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 42096 Technic  Porsche 911 RSR Race Car Advanced Building Set, Exclusive Collectible Model</t>
+  </si>
+  <si>
+    <t>LEGO 21028 Architecture New York City Skyline Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 76388 Harry Potter Hogsmeade Village Visit 20th Anniversary Set with Collectible Golden Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 75306 Star Wars Imperial Probe Droid Building Set for Adults, Collectible Gift for The Empire Strikes Back Fans</t>
+  </si>
+  <si>
+    <t>LEGO 60287 City Great Vehicles Tractor Toy, Farm Set with Rabbit Figure for 5 Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 60139 City Police Mobile Command Center Building Set, truck toy and Motorbike, Police Toys for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 75979 Harry Potter Hedwig the Owl Figure Collectible Display Model with Moving Wings</t>
+  </si>
+  <si>
+    <t>LEGO 60298 City Stuntz Rocket Stunt Bike Set with Flywheel-Powered Toy Motorbike &amp; Rocket Racer Minifigure, Toys for Kids 5 Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 76900 Speed Champions Koenigsegg Jesko Racing Sports Car Toy with Driver Minifigure, Racer Model Set for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 41443 Friends Olivia's Electric Car Toy, Eco Education Playset for Kids 6</t>
+  </si>
+  <si>
+    <t>LEGO 31111 Creator 3 in 1 Cyber Drone Building Set with Cyber Mech and Scooter, Space Toys for Kids 6 Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 42120 Technic Rescue Hovercraft to Aircraft Toy, 2 in 1 Model, Building Set for Boys and Girls 8 + Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 60198 City Cargo Train Set Battery Powered Engine For 6 Year Old, RC Bluetooth Connection, 3 Wagons, Tracks and Accessories</t>
+  </si>
+  <si>
+    <t>LEGO 76902 Speed Champions McLaren Elva Racing Car Toy for Kids 7+ Years Old, Sports Race Model Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 60226 City Mars Research Shuttle Spaceship Construction Toys for Kids inspired by NASA with Rover and Drone</t>
+  </si>
+  <si>
+    <t>LEGO 71381 Super Mario Chain Chomp Jungle Encounter Expansion Set, Buildable Game with Bramball Figure</t>
+  </si>
+  <si>
+    <t>LEGO 75298 Star Wars AT-AT vs. Tauntaun Microfighters  Building Set with Luke Skywalker and AT-AT Driver Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 75300 Star Wars Imperial TIE Fighter Toy with Stormtrooper and Pilot Minifigures from The Skywalker Saga</t>
+  </si>
+  <si>
+    <t>LEGO 92176 Ideas NASA Apollo Saturn V Space Rocket and Vehicles, Spaceship Collectors Building Set with Display Stand [Amazon Exclusive]</t>
+  </si>
+  <si>
+    <t>LEGO 76168 Marvel Avengers Captain America Mech Armour Set, Action Figure Toy for 7+ Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 71746 NINJAGO Jungle Dragon Building Set, with Ninja Lloyd and Zane Minifigures, Toys for 8 + Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 41938 DOTS Creative Designer Box, Lots of Extra DOTS, with Pencil Holder, Desk Organiser, Picture Frame &amp; Door Sign for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 71745 NINJAGO Lloyd’s Jungle Chopper Bike Building Set, Motorbike Toy with Lloyd and Nya Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 21165 Minecraft The Bee Farm Village Building Set with Beekeeper and Sheep Figure, Toys 8 Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 75948 Harry Potter Hogwarts Castle Clock Tower Toy, Compatible with Great Hall and Whomping Willow Sets</t>
+  </si>
+  <si>
+    <t>LEGO 41444 Friends Heartlake City Organic Café Playset, Eco Education for Kids 6+</t>
+  </si>
+  <si>
+    <t>LEGO Elfen-Klubhaus (10275) 1192 Teile</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A05703253Q7UGAOUXA9OZ&amp;url=%2FLEGO-Creator-London-40220-361329%2Fdp%2FB01KSGLLLM%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570184%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-1-spons%26psc%3D1%26smid%3DA2672SK7B2U42P&amp;qualifier=1634570184&amp;id=2457982534738217&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A01687702O7RFQ4SBKN16&amp;url=%2FLego-Prince-Persia-Mini-Figure%2Fdp%2FB003IUQYCW%2Fref%3Dsr_1_2_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570184%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-2-spons%26psc%3D1%26smid%3DA1HZWI0Z8OAQOE&amp;qualifier=1634570184&amp;id=2457982534738217&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A04688572CLN0WDINMNI6&amp;url=%2FLEGO-Jurassic-World-75936-Confidential-Multi-Coloured%2Fdp%2FB07G3RKS79%2Fref%3Dsr_1_3_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570184%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-3-spons%26psc%3D1%26smid%3DA1QD8OYV8FUXRI&amp;qualifier=1634570184&amp;id=2457982534738217&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75301-Skywalkers-Fighter-Princess/dp/B08G4GP34B/ref=sr_1_4?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42110-Toy-Multicolour/dp/B07P2GQDQ6/ref=sr_1_5?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10281-LEGO-10281-Creator-Expert-Bonsai-Tree-Set-for-Adults-Home-D%C3%A9cor-DIY-Projects-Botanical-Collection/dp/B08G4PCG8F/ref=sr_1_6?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42123-Technic-Collectible-Construction/dp/B08G4293BD/ref=sr_1_7?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75957-Triple-decker-Collectible-Minifigures/dp/B07KX54VHF/ref=sr_1_8?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60281-Helicopter-Firefighter-Minifigures/dp/B08G4D3P1T/ref=sr_1_9?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41679-Friends-Treehouse-Adventure/dp/B08W5FXSQJ/ref=sr_1_10?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76191-Infinity-Gauntlet-Collectible/dp/B08WX4YRK7/ref=sr_1_11?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76169-Heroes-Avengers-Minifigure/dp/B08G4B5Z97/ref=sr_1_12?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41441-Friends-Training-Building/dp/B08W5FF49K/ref=sr_1_13?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75318-Star-Wars-Mandalorian/dp/B085WV2WGC/ref=sr_1_14?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60303-Calendar-Christmas-Minifigures/dp/B08X1B622Z/ref=sr_1_15?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31088-Creatures-Building-Colourful/dp/B07FNS6J7R/ref=sr_1_16?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60276-Prisoner-Transport-Expansion/dp/B08G4PBFLQ/ref=sr_1_17?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60283-Vehicles-Motorhome-Holidays/dp/B08G4M8J87/ref=sr_1_18?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42121-Heavy-Duty-Excavator-Construction/dp/B08G4CKL16/ref=sr_1_19?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42119-Technic-Monster-Building/dp/B08G4D31L2/ref=sr_1_20?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75312-Starship-Mandalorian-Minifigures/dp/B08WWTPDG2/ref=sr_1_21?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75314-Shuttle-Building-Minifigures/dp/B08WWKYKT9/ref=sr_1_22?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21159-LEGO-21159-Minecraft-The-Pillager-Outpost-Action-Figures-Building-Set-Iron-Golem-Adventure-Toy-for-Kids-7-Years-Old/dp/B07WC1VFZH/ref=sr_1_23?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-23</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60288-Vehicles-Transporter-Steerable/dp/B08G4LMHB4/ref=sr_1_24?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42122-Technic-Wrangler-Building/dp/B08G4LZVTW/ref=sr_1_25?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21166-Minecraft-Abandoned-Building/dp/B085WV4WST/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76387-Harry-Potter-Hogwarts/dp/B08W8LDL1F/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42122-Technic-Wrangler-Building/dp/B08G4LZVTW/ref=sr_1_25?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75318-Star-Wars-Mandalorian/dp/B085WV2WGC/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31088-Creatures-Building-Colourful/dp/B07FNS6J7R/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42119-Technic-Monster-Building/dp/B08G4D31L2/ref=sr_1_28?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-28</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60276-Prisoner-Transport-Expansion/dp/B08G4PBFLQ/ref=sr_1_29?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-29</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21034-Architecture-Skyline-Building/dp/B01J41MPF8/ref=sr_1_30?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-30</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10692-Creative-Learning-Children/dp/B00NVDOWUW/ref=sr_1_31?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-31</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76196-tbd-LSH-29-2021/dp/B08W9GQ7MV/ref=sr_1_32?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-32</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75307-tbd-IP-LSW14-2021/dp/B08W9K2CTM/ref=sr_1_33?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-33</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76186-Avengers-Building-Minifigures/dp/B08W8KPVKC/ref=sr_1_34?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42111-Technic-Collectors-Building/dp/B07YYQ89RT/ref=sr_1_35?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76190-Marvel-Avengers-Building/dp/B08WX3FDC2/ref=sr_1_36?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/42096-Technic-Building-Realistic-Construction/dp/B07FP6QNQ7/ref=sr_1_37?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-37</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21028-Architecture-Skyline-Collection/dp/B012NOGGHQ/ref=sr_1_38?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-38</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76388-Anniversary-Collectible-Minifigure/dp/B08WXFFY9F/ref=sr_1_39?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-39</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75306-Toy/dp/B08G46Q9YD/ref=sr_1_40?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60287-Vehicles-Tractor-Rabbit/dp/B08G4THL9P/ref=sr_1_41?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-41</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60139-Command-Building-Motorbike/dp/B01J41G4SC/ref=sr_1_42?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-42</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A05703253Q7UGAOUXA9OZ&amp;url=%2FLEGO-Creator-London-40220-361329%2Fdp%2FB01KSGLLLM%2Fref%3Dsr_1_43_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570187%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-43-spons%26psc%3D1%26smid%3DA2672SK7B2U42P&amp;qualifier=1634570187&amp;id=1926288755431808&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/75979-Harry-Potter-Collectible-Display/dp/B0813S3VDM/ref=sr_1_44?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-44</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60298-Rocket-Stunt-Bike/dp/B08W5FWDRT/ref=sr_1_45?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-45</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76900-Champions-Koenigsegg-Minifigure/dp/B08W8W71HC/ref=sr_1_46?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-46</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41443-Friends-Electric-Education/dp/B08G4BMD2K/ref=sr_1_47?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-47</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31111-Creator-Building-Scooter/dp/B08G4MH27V/ref=sr_1_48?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-48</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42120-Hovercraft-Aircraft-Building/dp/B08G4SR6C8/ref=sr_1_49?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60198-Cargo-Train-Multicolored/dp/B078K4K423/ref=sr_1_49?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76902-Champions-McLaren-Building/dp/B08W8H6KCC/ref=sr_1_50?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-50</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60226-navette-spatiale-Multicolour/dp/B07KTVJHPF/ref=sr_1_51?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-51</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71381-Encounter-Expansion-Buildable/dp/B08G4FD6BL/ref=sr_1_52?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75298-Microfighters-Skywalker-Minifigures/dp/B08G4CNSJQ/ref=sr_1_53?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75300-Stormtrooper-Minifigures-Skywalker/dp/B08G444BQH/ref=sr_1_54?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-92176-LEGO-92176-Ideas-NASA-Apollo-Saturn-V-Space-Rocket-and-Vehicles-Spaceship-Collectors-Building-Set-with-Display-Stand/dp/B08GNXNPR6/ref=sr_1_55?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76168-Avengers-Captain-America/dp/B08G44WXWR/ref=sr_1_56?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71746-NINJAGO-Building-Minifigures/dp/B08G46PN5C/ref=sr_1_57?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41938-Creative-Designer-Organiser/dp/B08WWTMGCQ/ref=sr_1_58?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-58</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71745-Building-Motorbike-Minifigures/dp/B08G4GVRD8/ref=sr_1_59?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-59</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21165-Minecraft-Building-Beekeeper/dp/B085WV8R86/ref=sr_1_60?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-60</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Harry-Potter-75948-Confidential-Multi-Colour/dp/B07G3S3M9J/ref=sr_1_61?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-61</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41444-Friends-Heartlake-Education/dp/B08G44DS1X/ref=sr_1_73?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570194&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-73</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Seasonal-Elf-Clubhouse-10275/dp/B08K94SH9G/ref=sr_1_97?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570197&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-97</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.0</t>
+    <t>4.5</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
+    <t>4.8</t>
+  </si>
+  <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
     <t>4.6</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -588,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C2">
-        <v>51.8</v>
+        <v>9.49</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
+        <v>134</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -633,16 +849,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>25.97</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
+        <v>135</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -650,16 +866,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>9.99</v>
+        <v>239.74</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -667,16 +883,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>34.99</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -684,16 +900,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>29.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
+        <v>137</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -701,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>36.99</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,16 +934,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>29.99</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>99.98999999999999</v>
+        <v>27.99</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -752,16 +968,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>19.99</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -769,16 +985,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>19.99</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -786,16 +1002,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>59.8</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -803,16 +1019,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>13.99</v>
+        <v>8.99</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
+        <v>138</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -820,16 +1036,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>8.99</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,16 +1053,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>17.99</v>
+        <v>49.99</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,16 +1070,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>19.99</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
+        <v>138</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -871,16 +1087,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C17">
-        <v>71.98999999999999</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,16 +1104,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C18">
-        <v>34.99</v>
+        <v>11.99</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -905,16 +1121,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <v>38.28</v>
+        <v>13.99</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -922,16 +1138,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C20">
-        <v>29.99</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -939,16 +1155,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>27.99</v>
+        <v>17.99</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -956,16 +1172,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>27.99</v>
+        <v>44.99</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -973,16 +1189,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C23">
-        <v>17.99</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -990,16 +1206,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C24">
-        <v>35.99</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1007,16 +1223,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
+        <v>138</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1024,16 +1240,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C26">
-        <v>11.99</v>
+        <v>34.99</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1041,16 +1257,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C27">
-        <v>14.99</v>
+        <v>17.99</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1058,16 +1274,696 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>29.99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>34.99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>49.99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>17.99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33">
+        <v>11.99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>35.99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>12.97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>14.99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40">
+        <v>31.99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41">
+        <v>105.99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>31.99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43">
+        <v>59.99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44">
+        <v>42.79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45">
+        <v>11.99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46">
+        <v>32.99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>9.49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48">
+        <v>27.99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49">
+        <v>6.99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52">
+        <v>8.93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53">
+        <v>26.98</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55">
+        <v>17.99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56">
+        <v>21.99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>16.99</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59">
+        <v>27.99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
+        <v>109.99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62">
+        <v>31.98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64">
+        <v>17.99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65">
+        <v>17.99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66">
+        <v>66.95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
-        <v>67</v>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>19.99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1099,6 +1995,46 @@
     <hyperlink ref="B26" r:id="rId25"/>
     <hyperlink ref="B27" r:id="rId26"/>
     <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/product_urls.xlsx
+++ b/product_urls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="138">
   <si>
     <t>description</t>
   </si>
@@ -31,406 +31,400 @@
     <t>page</t>
   </si>
   <si>
-    <t>LEGO 40220 Blocks</t>
-  </si>
-  <si>
-    <t>Lego Prince of Persia Mini Figure - Skeleton</t>
-  </si>
-  <si>
-    <t>LEGO Jurassic World (75936) Confidential, Bunt</t>
-  </si>
-  <si>
-    <t>LEGO 75301 Star Wars Luke Skywalker's X-Wing Fighter Toy for Kids Age 9+ with Princess Leia Minifigure and R2-D2 Droid Figure</t>
-  </si>
-  <si>
-    <t>LEGO 42110 Technic Land Rover Defender Off Road 4x4 Car, Exclusive Collectible Model, Advanced Building Set</t>
-  </si>
-  <si>
-    <t>LEGO 10281 Creator Expert Bonsai Tree Set for Adults, Home Décor DIY Projects, Botanical Collection</t>
-  </si>
-  <si>
-    <t>LEGO 42123 Technic McLaren Senna GTR Racing Sports Car Collectible Model, Vehicle Construction Set</t>
-  </si>
-  <si>
-    <t>LEGO 75957 Harry Potter - The Knight Bus (Triple-decker Set with Minifigures)</t>
-  </si>
-  <si>
-    <t>LEGO 60281 City Fire Rescue Helicopter Toy with Motorbike, Firefighter and Pilot Minifigures</t>
+    <t>LEGO 42123 Technic McLaren Senna GTR Racing Sports Collectable Model Car, Vehicle Toy Construction Set, Idea</t>
+  </si>
+  <si>
+    <t>LEGO 76196 Marvel The Avengers Advent Calendar 2021 Buildable Toys with Spider-Man and Iron Man for Kids Aged 7 Idea</t>
   </si>
   <si>
     <t>LEGO 41679 Friends Forest House Toy, Treehouse Adventure Set with Mia Mini Doll and Kayak Boat Model</t>
   </si>
   <si>
-    <t>LEGO 76191 Marvel Infinity Gauntlet Building Set, Thanos Glove Model for Adults, Collectible Avengers Gift</t>
+    <t>LEGO 10281 Bonsai Tree Set for Adults, Home Décor DIY Projects, Creative Relaxing Activity, Unique Idea, Botanical Collection</t>
+  </si>
+  <si>
+    <t>LEGO 76390 Harry Potter Advent Calendar 2021 Christmas Toys and Board Game Gift for Kids Aged 7 with 6 Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 10282 adidas Originals Superstar Trainers Collectors Building Set for Adults, Display Collectible Shoe Model, Idea</t>
+  </si>
+  <si>
+    <t>LEGO 42122 Technic Jeep Wrangler 4x4 Toy Car, Off Roader SUV Model Building Set, Gift Idea</t>
+  </si>
+  <si>
+    <t>LEGO 71746 NINJAGO Jungle Dragon Building Set, with Ninja Lloyd and Zane Minifigures, Toys for 8 + Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 75948 Harry Potter Hogwarts Castle Clock Tower Toy, Compatible with Great Hall and Whomping Willow Sets</t>
+  </si>
+  <si>
+    <t>LEGO 76191 Marvel Infinity Gauntlet Building Set, Thanos Glove Model for Adults, Collectible Avengers Gift, Unique Idea</t>
+  </si>
+  <si>
+    <t>LEGO 76942 Jurassic World Baryonyx Dinosaur Floating Boat Escape Toy with Speedboat for Boys &amp; Girls</t>
+  </si>
+  <si>
+    <t>LEGO 31111 Creator 3 in 1 Cyber Drone Building Set with Cyber Mech and Scooter, Space Toys for Kids 6+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 21034 Architecture Skyline Model Building Set, London Eye, Big Ben, Tower Bridge Model Collection, Office Home Décor, Collectible Gift Idea</t>
+  </si>
+  <si>
+    <t>LEGO 10280 Flower Bouquet, Artificial Flowers, Set for Adults, Decorative Home Accessories, Idea, Botanical Collection</t>
+  </si>
+  <si>
+    <t>LEGO 76895 Speed Champions Ferrari F8 Tributo Toy Racing Car with Driver Minifigure, Race Cars Building Sets</t>
+  </si>
+  <si>
+    <t>LEGO 71387 Super Mario Adventures with Luigi Starter Course Toy, Interactive Figure and Buildable Game Set, Idea for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 60281 City Fire Rescue Helicopter Toy with Motorbike, Firefighter and Pilot Minifigures, For Kids 5+ Years Old, Gift Idea</t>
+  </si>
+  <si>
+    <t>LEGO 75280 Star Wars 501st Legion Clone Troopers Set with Battle Droids and AT-RT Walker</t>
+  </si>
+  <si>
+    <t>LEGO 21170 Minecraft The Pig House Building Toy for Kids with Alex and Creeper Figure, Idea for Kids 8+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 42119 Technic Monster Jam Max-D Truck Toy to Quad Bike Pull Back 2 in 1 Building Set, Toys for Boys and Girls 7+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 76902 Speed Champions McLaren Elva Racing Car Toy for Kids 7+ Years Old, Sports Race Model Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 21172 Minecraft The Ruined Portal Toy with Steve and Wither Skeleton Figures, Building Set for Kids 8+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 76384 Harry Potter Hogwarts Moment: Herbology Class Collectible Book Toy, Travel Case, Portable Playset</t>
+  </si>
+  <si>
+    <t>LEGO 75551 Minions Brick-Built Minions and Their Lair Display Models with Stuart, Kevin &amp; Bob Figures</t>
+  </si>
+  <si>
+    <t>LEGO 71750 NINJAGO Lloyd’s Hydro Mech Action Figure Underwater Building Set, Ninja Toy for Kids with Lloyd Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 60297 City Stuntz Demolition Stunt Bike Set with Flywheel-Powered Toy Motorbike &amp; Racer Wallop Minifigure, Toys for Kids 5 Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 71388 Super Mario Boss Sumo Bro Topple Tower Expansion Set, Collectible Buildable Game Toy for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 76195 Marvel Spider-Man’s Drone Duel Building Toy for Kids Age 7 , Superhero Birthday Idea</t>
+  </si>
+  <si>
+    <t>LEGO 60303 City Advent Calendar 2021 Mini Builds Set, Christmas Toys for Kids Age 5 with Play Board &amp; 6 Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 75305 Star Wars Scout Trooper Helmet Building Set for Adults, Collectible Gift Model</t>
+  </si>
+  <si>
+    <t>LEGO 60283 City Great Vehicles Holiday Camper Van Toy Car for Kids 5 + Years Old, Caravan Motorhome Summer Sets</t>
+  </si>
+  <si>
+    <t>LEGO 71736 NINJAGO Legacy Boulder Blaster Aeroplane Toy with Prison and Collectible Gold Ninja Kai Figure</t>
+  </si>
+  <si>
+    <t>LEGO 21166 Minecraft The Abandoned Mine Building Set, Zombie Cave with Slime, Steve and Spider Figures, Toy for Kids Age 7 +</t>
+  </si>
+  <si>
+    <t>LEGO 71367 Super Mario House &amp; Yoshi Expansion Set Buildable Game</t>
+  </si>
+  <si>
+    <t>LEGO 75307 Star Wars Advent Calendar 2021 Toy Building Set, The Mandalorian for Kids Age 6 with Baby Yoda Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 41685 Friends Magical Funfair Roller Coaster Fairground Set, Amusement Park Toy for Kids 8+ Years Old with Magic Tricks</t>
+  </si>
+  <si>
+    <t>LEGO 71745 NINJAGO Lloyd’s Jungle Chopper Bike Building Set, Motorbike Toy with Lloyd and Nya Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 60299 City Stuntz Stunt Show Competition Set with 2 Flywheel-Powered Toy Motorbikes, Ring of Fire and Duke DeTain Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 60300 City Wildlife Rescue ATV Off Roader Vehicle Car Toy with Animal Figures, Toys for Kids 5 Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 21319 Ideas Central Perk Friends TV Show Series with Iconic Cafe Studio and 7 Minifigures 25th Anniversary Collectors Set, Idea</t>
+  </si>
+  <si>
+    <t>LEGO 75304 Star Wars Darth Vader Helmet Display Building Set for Adults, Collectible Gift Model</t>
+  </si>
+  <si>
+    <t>LEGO 21328 Ideas Seinfeld Apartment Building Set for Adults, 90s Nostalgia Display Model, Gift Idea with Jerry Seinfeld Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 76387 Harry Potter Hogwarts: Fluffy Encounter Castle Toy Building Set, with 20th Anniversary Golden Minifigure &amp; 3-Headed Dog Figure</t>
+  </si>
+  <si>
+    <t>LEGO 75277 Star Wars Boba Fett Helmet Display Building Set, Advanced Collectible Gift Model for Adults</t>
+  </si>
+  <si>
+    <t>LEGO 41684 Friends Grand Hotel Resort Dolls House Building Set, Heartlake City Toy with Summer and Winter Scenes, Idea for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 76382 Harry Potter Hogwarts Moment: Transfiguration Class Set, Collectable Book Travel Toy Age 8 +, Stocking Filler Gift Idea for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 76386 Harry Potter Hogwarts: Polyjuice Potion Mistake Castle Set with 20th Anniversary Golden Minifigure and Transforming Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 71362 Super Mario Guarded Fortress Expansion Set Buildable Game</t>
+  </si>
+  <si>
+    <t>LEGO 60301 City Wildlife Rescue Off Roader Vehicle Car Toy, Building Set with Animal Figures, Gift Idea for Preschool Kids 4 + Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 41444 Friends Heartlake City Organic Café Toy with Mini Dolls &amp; Accessories, Toys for Kids 6 + Years Old, Eco Education Set, Stocking Filler Idea</t>
+  </si>
+  <si>
+    <t>LEGO 41380 Friends Lighthouse Rescue Center 4-Floors Vet Clinic Set with Mia and Emma Mini dolls with Animals Figures</t>
+  </si>
+  <si>
+    <t>LEGO 71360 Super Mario Adventures Starter Course Set, Buildable Game with Interactive Toy Figure</t>
+  </si>
+  <si>
+    <t>LEGO 10698 Classic Large Creative Brick Box Construction Set, Toy Storage with Windows, Doors and Green Baseplate, Building Toys Xmas Gift for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 92177 Ideas Ship in a Bottle Collectors Building Set with Display Stand [Amazon Exclusive]</t>
+  </si>
+  <si>
+    <t>LEGO 76900 Speed Champions Koenigsegg Jesko Racing Sports Car Toy with Driver Minifigure, Racer Model Set for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 75283 Star Wars Armored Assault Tank (AAT) Set with Ahsoka Tano Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 42120 Technic Rescue Hovercraft to Aircraft Model Building Kit, 2in1 Toy for Boys and Girls 8 + Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 76389 Harry Potter Hogwarts Chamber of Secrets Modular Castle Toy with The Great Hall, 20th Anniversary Set with Collectible Golden Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 42116 Technic Skid Steer Loader Toy Excavator to Hot Rod Car 2 in 1 Set, Construction Vehicle Model</t>
   </si>
   <si>
     <t>LEGO 76169 Super Heroes Marvel Avengers Thor Mech Armour Set, Action Figure Toy with Thor Minifigure</t>
   </si>
   <si>
-    <t>LEGO 41441 Friends Horse Training and Trailer Building Set with Stables and Car, Toy for Kids 4+ Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 75318 Star Wars: The Mandalorian The Child Baby Yoda Figure Gift Idea</t>
-  </si>
-  <si>
-    <t>LEGO 60303 City Advent Calendar 2021 Mini Builds Set, Christmas Toys for Kids Age 5 with Play Board &amp; 6 Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 31088 Creator Deep Sea Creatures: Shark, Crab and Squid or Angler Fish, 3 in 1 Seaside Adventures Building Set, Toys for Kids 7 Years Old and Older</t>
-  </si>
-  <si>
-    <t>LEGO 60276 City Police Prisoner Transport Tow Truck Toy, Police Station Expansion Set</t>
-  </si>
-  <si>
-    <t>LEGO 60283 City Great Vehicles Holiday Camper Van Toy, Motorhome Car Playset, Summer Holidays Toys</t>
-  </si>
-  <si>
-    <t>LEGO 42121 Technic Heavy-Duty Excavator Toy, 2 in 1 Model, Construction Vehicle Building Set for Kids 8 Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 42119 Technic Monster Jam Max-D Truck Toy to Quad Bike Pull Back 2 in 1 Building Set</t>
-  </si>
-  <si>
-    <t>LEGO 75312 Star Wars Boba Fett’s Starship Building Toy for Kids Age 9 , Mandalorian Model Set with 2 Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 75314 Star Wars The Bad Batch Attack Shuttle Building Toy for Kids Age 9 , Set with 5 Clones Minifigures &amp; Gonk Droid Figure</t>
-  </si>
-  <si>
-    <t>LEGO 21159 Minecraft The Pillager Outpost Action Figures Building Set, Iron Golem Adventure Toy for Kids 7 Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 60288 City Great Vehicles Race Buggy Transporter  Toy Truck with Trailer and Steerable Baja Race Car</t>
-  </si>
-  <si>
-    <t>LEGO 42122 Technic Jeep Wrangler 4x4 Toy Car, Off Roader SUV Model Building Set</t>
-  </si>
-  <si>
-    <t>LEGO 21166 Minecraft The Abandoned Mine Building Set, Zombie Cave with Slime, Steve and Spider Figures</t>
-  </si>
-  <si>
-    <t>LEGO 76387 Harry Potter Hogwarts: Fluffy Encounter Castle Toy Building Set, with 20th Anniversary Golden Minifigure &amp; 3-Headed Dog Figure</t>
-  </si>
-  <si>
-    <t>LEGO 21034 Architecture Skyline Model Building Set, London Eye, Big Ben, Tower Bridge Collection, Construction Collectible Gift Idea</t>
-  </si>
-  <si>
-    <t>LEGO 10692 Classic Creative Bricks, Classic Colorful Building Set with Storage Box (221 Pieces)</t>
-  </si>
-  <si>
-    <t>LEGO 76196 Marvel The Avengers Advent Calendar 2021 Buildable Toys with Spider-Man and Iron Man for Kids Aged 7 Idea</t>
-  </si>
-  <si>
-    <t>LEGO 75307 Star Wars Advent Calendar 2021 Toy Building Set, The Mandalorian for Kids Age 6 with Baby Yoda Minifigure</t>
-  </si>
-  <si>
-    <t>LEGO 76186 Marvel Black Panther Dragon Flyer, Avengers Building Toy with 3 Minifigures, Super Heroes Set</t>
-  </si>
-  <si>
-    <t>LEGO 42111 Technic Fast &amp; Furious Dom's Dodge Charger Racing Car Model Iconic Collector's Building Set</t>
-  </si>
-  <si>
-    <t>LEGO 76190 Marvel Iron Man Monger Mayhem Set, Avengers Mech Building Toy, Action Figure for Kids 9+ Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 42096 Technic  Porsche 911 RSR Race Car Advanced Building Set, Exclusive Collectible Model</t>
-  </si>
-  <si>
-    <t>LEGO 21028 Architecture New York City Skyline Building Set</t>
-  </si>
-  <si>
-    <t>LEGO 76388 Harry Potter Hogsmeade Village Visit 20th Anniversary Set with Collectible Golden Minifigure</t>
-  </si>
-  <si>
-    <t>LEGO 75306 Star Wars Imperial Probe Droid Building Set for Adults, Collectible Gift for The Empire Strikes Back Fans</t>
-  </si>
-  <si>
-    <t>LEGO 60287 City Great Vehicles Tractor Toy, Farm Set with Rabbit Figure for 5 Years Old Boys and Girls</t>
-  </si>
-  <si>
-    <t>LEGO 60139 City Police Mobile Command Center Building Set, truck toy and Motorbike, Police Toys for Kids</t>
-  </si>
-  <si>
-    <t>LEGO 75979 Harry Potter Hedwig the Owl Figure Collectible Display Model with Moving Wings</t>
-  </si>
-  <si>
-    <t>LEGO 60298 City Stuntz Rocket Stunt Bike Set with Flywheel-Powered Toy Motorbike &amp; Rocket Racer Minifigure, Toys for Kids 5 Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 76900 Speed Champions Koenigsegg Jesko Racing Sports Car Toy with Driver Minifigure, Racer Model Set for Kids</t>
-  </si>
-  <si>
-    <t>LEGO 41443 Friends Olivia's Electric Car Toy, Eco Education Playset for Kids 6</t>
-  </si>
-  <si>
-    <t>LEGO 31111 Creator 3 in 1 Cyber Drone Building Set with Cyber Mech and Scooter, Space Toys for Kids 6 Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 42120 Technic Rescue Hovercraft to Aircraft Toy, 2 in 1 Model, Building Set for Boys and Girls 8 + Years Old</t>
-  </si>
-  <si>
-    <t>LEGO 60198 City Cargo Train Set Battery Powered Engine For 6 Year Old, RC Bluetooth Connection, 3 Wagons, Tracks and Accessories</t>
-  </si>
-  <si>
-    <t>LEGO 76902 Speed Champions McLaren Elva Racing Car Toy for Kids 7+ Years Old, Sports Race Model Building Set</t>
-  </si>
-  <si>
-    <t>LEGO 60226 City Mars Research Shuttle Spaceship Construction Toys for Kids inspired by NASA with Rover and Drone</t>
-  </si>
-  <si>
-    <t>LEGO 71381 Super Mario Chain Chomp Jungle Encounter Expansion Set, Buildable Game with Bramball Figure</t>
-  </si>
-  <si>
-    <t>LEGO 75298 Star Wars AT-AT vs. Tauntaun Microfighters  Building Set with Luke Skywalker and AT-AT Driver Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 75300 Star Wars Imperial TIE Fighter Toy with Stormtrooper and Pilot Minifigures from The Skywalker Saga</t>
-  </si>
-  <si>
-    <t>LEGO 92176 Ideas NASA Apollo Saturn V Space Rocket and Vehicles, Spaceship Collectors Building Set with Display Stand [Amazon Exclusive]</t>
-  </si>
-  <si>
-    <t>LEGO 76168 Marvel Avengers Captain America Mech Armour Set, Action Figure Toy for 7+ Years Old Boys and Girls</t>
-  </si>
-  <si>
-    <t>LEGO 71746 NINJAGO Jungle Dragon Building Set, with Ninja Lloyd and Zane Minifigures, Toys for 8 + Years Old Boys and Girls</t>
-  </si>
-  <si>
-    <t>LEGO 41938 DOTS Creative Designer Box, Lots of Extra DOTS, with Pencil Holder, Desk Organiser, Picture Frame &amp; Door Sign for Kids</t>
-  </si>
-  <si>
-    <t>LEGO 71745 NINJAGO Lloyd’s Jungle Chopper Bike Building Set, Motorbike Toy with Lloyd and Nya Minifigures</t>
-  </si>
-  <si>
-    <t>LEGO 21165 Minecraft The Bee Farm Village Building Set with Beekeeper and Sheep Figure, Toys 8 Boys and Girls</t>
-  </si>
-  <si>
-    <t>LEGO 75948 Harry Potter Hogwarts Castle Clock Tower Toy, Compatible with Great Hall and Whomping Willow Sets</t>
-  </si>
-  <si>
-    <t>LEGO 41444 Friends Heartlake City Organic Café Playset, Eco Education for Kids 6+</t>
-  </si>
-  <si>
-    <t>LEGO Elfen-Klubhaus (10275) 1192 Teile</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A05703253Q7UGAOUXA9OZ&amp;url=%2FLEGO-Creator-London-40220-361329%2Fdp%2FB01KSGLLLM%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570184%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-1-spons%26psc%3D1%26smid%3DA2672SK7B2U42P&amp;qualifier=1634570184&amp;id=2457982534738217&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A01687702O7RFQ4SBKN16&amp;url=%2FLego-Prince-Persia-Mini-Figure%2Fdp%2FB003IUQYCW%2Fref%3Dsr_1_2_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570184%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-2-spons%26psc%3D1%26smid%3DA1HZWI0Z8OAQOE&amp;qualifier=1634570184&amp;id=2457982534738217&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_toys_sr_pg1_1?ie=UTF8&amp;adId=A04688572CLN0WDINMNI6&amp;url=%2FLEGO-Jurassic-World-75936-Confidential-Multi-Coloured%2Fdp%2FB07G3RKS79%2Fref%3Dsr_1_3_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570184%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-3-spons%26psc%3D1%26smid%3DA1QD8OYV8FUXRI&amp;qualifier=1634570184&amp;id=2457982534738217&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75301-Skywalkers-Fighter-Princess/dp/B08G4GP34B/ref=sr_1_4?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42110-Toy-Multicolour/dp/B07P2GQDQ6/ref=sr_1_5?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-10281-LEGO-10281-Creator-Expert-Bonsai-Tree-Set-for-Adults-Home-D%C3%A9cor-DIY-Projects-Botanical-Collection/dp/B08G4PCG8F/ref=sr_1_6?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42123-Technic-Collectible-Construction/dp/B08G4293BD/ref=sr_1_7?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75957-Triple-decker-Collectible-Minifigures/dp/B07KX54VHF/ref=sr_1_8?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60281-Helicopter-Firefighter-Minifigures/dp/B08G4D3P1T/ref=sr_1_9?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-9</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41679-Friends-Treehouse-Adventure/dp/B08W5FXSQJ/ref=sr_1_10?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-10</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76191-Infinity-Gauntlet-Collectible/dp/B08WX4YRK7/ref=sr_1_11?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76169-Heroes-Avengers-Minifigure/dp/B08G4B5Z97/ref=sr_1_12?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41441-Friends-Training-Building/dp/B08W5FF49K/ref=sr_1_13?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-13</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75318-Star-Wars-Mandalorian/dp/B085WV2WGC/ref=sr_1_14?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-14</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60303-Calendar-Christmas-Minifigures/dp/B08X1B622Z/ref=sr_1_15?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-15</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-31088-Creatures-Building-Colourful/dp/B07FNS6J7R/ref=sr_1_16?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-16</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60276-Prisoner-Transport-Expansion/dp/B08G4PBFLQ/ref=sr_1_17?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-17</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60283-Vehicles-Motorhome-Holidays/dp/B08G4M8J87/ref=sr_1_18?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42121-Heavy-Duty-Excavator-Construction/dp/B08G4CKL16/ref=sr_1_19?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42119-Technic-Monster-Building/dp/B08G4D31L2/ref=sr_1_20?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-20</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75312-Starship-Mandalorian-Minifigures/dp/B08WWTPDG2/ref=sr_1_21?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-21</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75314-Shuttle-Building-Minifigures/dp/B08WWKYKT9/ref=sr_1_22?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-22</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21159-LEGO-21159-Minecraft-The-Pillager-Outpost-Action-Figures-Building-Set-Iron-Golem-Adventure-Toy-for-Kids-7-Years-Old/dp/B07WC1VFZH/ref=sr_1_23?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-23</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60288-Vehicles-Transporter-Steerable/dp/B08G4LMHB4/ref=sr_1_24?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-24</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42122-Technic-Wrangler-Building/dp/B08G4LZVTW/ref=sr_1_25?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21166-Minecraft-Abandoned-Building/dp/B085WV4WST/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76387-Harry-Potter-Hogwarts/dp/B08W8LDL1F/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570184&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42122-Technic-Wrangler-Building/dp/B08G4LZVTW/ref=sr_1_25?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75318-Star-Wars-Mandalorian/dp/B085WV2WGC/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-31088-Creatures-Building-Colourful/dp/B07FNS6J7R/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42119-Technic-Monster-Building/dp/B08G4D31L2/ref=sr_1_28?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-28</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60276-Prisoner-Transport-Expansion/dp/B08G4PBFLQ/ref=sr_1_29?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-29</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21034-Architecture-Skyline-Building/dp/B01J41MPF8/ref=sr_1_30?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-30</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-10692-Creative-Learning-Children/dp/B00NVDOWUW/ref=sr_1_31?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-31</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76196-tbd-LSH-29-2021/dp/B08W9GQ7MV/ref=sr_1_32?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-32</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75307-tbd-IP-LSW14-2021/dp/B08W9K2CTM/ref=sr_1_33?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-33</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76186-Avengers-Building-Minifigures/dp/B08W8KPVKC/ref=sr_1_34?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-34</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42111-Technic-Collectors-Building/dp/B07YYQ89RT/ref=sr_1_35?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-35</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76190-Marvel-Avengers-Building/dp/B08WX3FDC2/ref=sr_1_36?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-36</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/42096-Technic-Building-Realistic-Construction/dp/B07FP6QNQ7/ref=sr_1_37?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-37</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21028-Architecture-Skyline-Collection/dp/B012NOGGHQ/ref=sr_1_38?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-38</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76388-Anniversary-Collectible-Minifigure/dp/B08WXFFY9F/ref=sr_1_39?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-39</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75306-Toy/dp/B08G46Q9YD/ref=sr_1_40?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-40</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60287-Vehicles-Tractor-Rabbit/dp/B08G4THL9P/ref=sr_1_41?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-41</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60139-Command-Building-Motorbike/dp/B01J41G4SC/ref=sr_1_42?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-42</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A05703253Q7UGAOUXA9OZ&amp;url=%2FLEGO-Creator-London-40220-361329%2Fdp%2FB01KSGLLLM%2Fref%3Dsr_1_43_sspa%3Fcrid%3D1SDTYPYXM70YV%26dchild%3D1%26keywords%3Dlego%26qid%3D1634570187%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-43-spons%26psc%3D1%26smid%3DA2672SK7B2U42P&amp;qualifier=1634570187&amp;id=1926288755431808&amp;widgetName=sp_mtf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/75979-Harry-Potter-Collectible-Display/dp/B0813S3VDM/ref=sr_1_44?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-44</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60298-Rocket-Stunt-Bike/dp/B08W5FWDRT/ref=sr_1_45?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-45</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76900-Champions-Koenigsegg-Minifigure/dp/B08W8W71HC/ref=sr_1_46?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-46</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41443-Friends-Electric-Education/dp/B08G4BMD2K/ref=sr_1_47?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-47</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-31111-Creator-Building-Scooter/dp/B08G4MH27V/ref=sr_1_48?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-48</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-42120-Hovercraft-Aircraft-Building/dp/B08G4SR6C8/ref=sr_1_49?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570187&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60198-Cargo-Train-Multicolored/dp/B078K4K423/ref=sr_1_49?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76902-Champions-McLaren-Building/dp/B08W8H6KCC/ref=sr_1_50?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-50</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-60226-navette-spatiale-Multicolour/dp/B07KTVJHPF/ref=sr_1_51?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-51</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-71381-Encounter-Expansion-Buildable/dp/B08G4FD6BL/ref=sr_1_52?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-52</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75298-Microfighters-Skywalker-Minifigures/dp/B08G4CNSJQ/ref=sr_1_53?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-53</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-75300-Stormtrooper-Minifigures-Skywalker/dp/B08G444BQH/ref=sr_1_54?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-54</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-92176-LEGO-92176-Ideas-NASA-Apollo-Saturn-V-Space-Rocket-and-Vehicles-Spaceship-Collectors-Building-Set-with-Display-Stand/dp/B08GNXNPR6/ref=sr_1_55?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-55</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76168-Avengers-Captain-America/dp/B08G44WXWR/ref=sr_1_56?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-56</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-71746-NINJAGO-Building-Minifigures/dp/B08G46PN5C/ref=sr_1_57?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-57</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41938-Creative-Designer-Organiser/dp/B08WWTMGCQ/ref=sr_1_58?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-58</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-71745-Building-Motorbike-Minifigures/dp/B08G4GVRD8/ref=sr_1_59?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-59</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-21165-Minecraft-Building-Beekeeper/dp/B085WV8R86/ref=sr_1_60?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-60</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-Harry-Potter-75948-Confidential-Multi-Colour/dp/B07G3S3M9J/ref=sr_1_61?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570190&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-61</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41444-Friends-Heartlake-Education/dp/B08G44DS1X/ref=sr_1_73?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570194&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-73</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-Seasonal-Elf-Clubhouse-10275/dp/B08K94SH9G/ref=sr_1_97?crid=1SDTYPYXM70YV&amp;dchild=1&amp;keywords=lego&amp;qid=1634570197&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-97</t>
+    <t>LEGO 76189 Marvel Captain America and Hydra Face-Off Building Set, Super Hero Toy for Kids Age 4 with Motorbike</t>
+  </si>
+  <si>
+    <t>LEGO 75288 Star Wars AT-AT Walker Toy 40th Anniversary Set</t>
+  </si>
+  <si>
+    <t>LEGO 41445 Friends Vet Clinic Ambulance Toy Car, Animal Rescue Playset with Olivia and Emma Minidolls</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42123-Technic-Collectible-Construction/dp/B08G4293BD/ref=sr_1_1?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76196-tbd-LSH-29-2021/dp/B08W9GQ7MV/ref=sr_1_2?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41679-Friends-Treehouse-Adventure/dp/B08W5FXSQJ/ref=sr_1_3?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10281-LEGO-10281-Creator-Expert-Bonsai-Tree-Set-for-Adults-Home-D%C3%A9cor-DIY-Projects-Botanical-Collection/dp/B08G4PCG8F/ref=sr_1_4?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76390-Calendar-Christmas-Minifigures/dp/B08WWKZK88/ref=sr_1_5?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10282-Originals-Collectors-Collectible/dp/B08WXB3GDK/ref=sr_1_6?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42122-Technic-Wrangler-Building/dp/B08G4LZVTW/ref=sr_1_7?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71746-NINJAGO-Building-Minifigures/dp/B08G46PN5C/ref=sr_1_8?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Harry-Potter-75948-Confidential-Multi-Colour/dp/B07G3S3M9J/ref=sr_1_9?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76191-Infinity-Gauntlet-Collectible/dp/B08WX4YRK7/ref=sr_1_10?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76942-Jurassic-Baryonyx-Speedboat/dp/B08WWXQVPJ/ref=sr_1_11?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31111-Creator-Building-Scooter/dp/B08G4MH27V/ref=sr_1_12?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21034-Architecture-Skyline-Building/dp/B01J41MPF8/ref=sr_1_13?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10280-LEGO-10280-Creator-Expert-Flower-Bouquet-Artificial-Flowers-Botanical-Collection/dp/B08G4KJGG3/ref=sr_1_14?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76895-LEGO-76895-Speed-Champions-Ferrari-F8-Tributo-Racer-Toy-with-Racing-Driver-Minifigure-Race-Cars-Building-Sets/dp/B07W5PWLN3/ref=sr_1_15?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71387-Adventures-Interactive-Buildable/dp/B08W9YYV8P/ref=sr_1_16?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60281-Helicopter-Firefighter-Minifigures/dp/B08G4D3P1T/ref=sr_1_17?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Star-Wars-75280-tbd-IP-18-2020-Multicolored/dp/B0813R6JC6/ref=sr_1_18?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21170-Minecraft-Building-Creeper/dp/B08G4GPS3P/ref=sr_1_19?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42119-Technic-Monster-Building/dp/B08G4D31L2/ref=sr_1_20?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76902-Champions-McLaren-Building/dp/B08W8H6KCC/ref=sr_1_21?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21172-Minecraft-Skeleton-Building/dp/B08WWWGJR6/ref=sr_1_22?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76384-Potter-Hogwarts-Moment/dp/B08G4KSBXK/ref=sr_1_23?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-23</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75551-tbd-PT-IP-2-6-Building-Set/dp/B07XBTQ69V/ref=sr_1_24?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_toys_sr_pg2_1?ie=UTF8&amp;adId=A06175543V6CK1ZMT0PS6&amp;url=%2FLEGO-71750-Underwater-Building-Minifigure%2Fdp%2FB08W9W7TSZ%2Fref%3Dsr_1_25_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-25-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_toys_sr_pg2_1?ie=UTF8&amp;adId=A0374801DT7D4I82SDKT&amp;url=%2FLEGO-60297-Demolition-Stunt-Bike%2Fdp%2FB08W5FWLYV%2Fref%3Dsr_1_26_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-26-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_toys_sr_pg2_1?ie=UTF8&amp;adId=A083689017K5FBTEI5F9S&amp;url=%2FLEGO-71388-Expansion-Collectible-Buildable%2Fdp%2FB08WWSWV1W%2Fref%3Dsr_1_27_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-27-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76195-tbd-LSH-2021/dp/B08W9HBYV7/ref=sr_1_28?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-28</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60303-Calendar-Christmas-Minifigures/dp/B08X1B622Z/ref=sr_1_29?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-29</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75305-Toy/dp/B08G4GNRD4/ref=sr_1_30?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-30</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60283-Vehicles-Motorhome-Holidays/dp/B08G4M8J87/ref=sr_1_31?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-31</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71736-NINJAGO-Aeroplane-Collectible/dp/B08G4HBJ1J/ref=sr_1_32?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-32</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21166-Minecraft-Abandoned-Building/dp/B085WV4WST/ref=sr_1_33?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-33</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71367-Super-Expansion-Buildable/dp/B082WF8MB5/ref=sr_1_34?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75307-tbd-IP-LSW14-2021/dp/B08W9K2CTM/ref=sr_1_35?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Friends-Magical-Fairground-Amusement/dp/B0984TD13R/ref=sr_1_36?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A04020651TRUU11RBO61K&amp;url=%2FLEGO-71745-Building-Motorbike-Minifigures%2Fdp%2FB08G4GVRD8%2Fref%3Dsr_1_37_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-37-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A078165123E3YDDKCZ16J&amp;url=%2FLEGO-60299-Stunt-Competition%2Fdp%2FB08W8H2V6N%2Fref%3Dsr_1_38_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-38-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A02783871QF3DCXMFV2TU&amp;url=%2FLEGO-60300-Wildlife-Vehicle-Figures%2Fdp%2FB08W9SGRXH%2Fref%3Dsr_1_39_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-39-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21319-Collectors-Designed-September/dp/B07VGGF8DP/ref=sr_1_40?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75304-Toy/dp/B08G4GPS3Q/ref=sr_1_41?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-41</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21328-tbd-Ideas_4/dp/B08WXBK6Z9/ref=sr_1_42?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-42</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76387-Harry-Potter-Hogwarts/dp/B08W8LDL1F/ref=sr_1_43?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-43</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75277-Building-Advanced-Collectible/dp/B07XFXZ4B7/ref=sr_1_44?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-44</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41684-Friends-Building-Heartlake/dp/B08WX922JY/ref=sr_1_45?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-45</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76382-Potter-Hogwarts-Moment/dp/B08G4HPRCR/ref=sr_1_46?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-46</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76386-Harry-Potter-Hogwarts/dp/B08W8BGKH5/ref=sr_1_47?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-47</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71362-Fortress-Expansion-Buildable/dp/B082WF7Z4Q/ref=sr_1_48?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-48</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A01805163SGC21GRUWRRS&amp;url=%2FLEGO-60301-Wildlife-Building-Preschool%2Fdp%2FB08WWQ6TK4%2Fref%3Dsr_1_49_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-49-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A00612903JNYMN4YM1Q63&amp;url=%2FLEGO-41444-Friends-Heartlake-Education%2Fdp%2FB08G44DS1X%2Fref%3Dsr_1_50_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-50-spons%26psc%3D1&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_toys_sr_pg2_1?ie=UTF8&amp;adId=A08631481RSMT1I16RSC0&amp;url=%2F41380-Friends-Lighthouse-4-Floors-Multicolour%2Fdp%2FB07L4FZ185%2Fref%3Dsr_1_51_sspa%3Fcrid%3D1SDTYPYXM70YV%26keywords%3Dlego%26qid%3D1636379954%26refinements%3Dp_89%253Alego%26rnid%3D1632651031%26s%3Dkids%26sprefix%3Dmy%2Bli%252Ctoys%252C163%26sr%3D1-51-spons%26psc%3D1%26smid%3DA26NY8BYEES5E7&amp;qualifier=1636379954&amp;id=1317483702914108&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71360-Adventures-Interactive-Buildable/dp/B082WDQHZQ/ref=sr_1_52?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10698-Creative-Construction-Colourful/dp/B00PY3EYQO/ref=sr_1_53?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-92177-Collectors-Building-Display/dp/B08GPG92V1/ref=sr_1_54?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76900-Champions-Koenigsegg-Minifigure/dp/B08W8W71HC/ref=sr_1_55?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Star-Wars-75283-tbd-IP-20-2020-Multicolored/dp/B081P5P1SM/ref=sr_1_56?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41444-Friends-Heartlake-Education/dp/B08G44DS1X/ref=sr_1_57?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379954&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42120-Hovercraft-Aircraft-Building/dp/B08G4SR6C8/ref=sr_1_49?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76389-Anniversary-Collectible-Minifigure/dp/B08WWRJ2QJ/ref=sr_1_50?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-50</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42116-Technic-Excavator-Construction/dp/B08G4TK5WS/ref=sr_1_51?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-51</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76169-Heroes-Avengers-Minifigure/dp/B08G4B5Z97/ref=sr_1_52?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76189-Face-Off-Building-Motorbike/dp/B08W8M82PH/ref=sr_1_53?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75288-AT-AT-Walker-Anniversary/dp/B0984QWZPY/ref=sr_1_54?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41445-Friends-Ambulance-Minidolls/dp/B08G4DRGBQ/ref=sr_1_55?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60299-Stunt-Competition/dp/B08W8H2V6N/ref=sr_1_56?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379958&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-56</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>4.8</t>
   </si>
   <si>
+    <t>4.7</t>
+  </si>
+  <si>
     <t>4.9</t>
-  </si>
-  <si>
-    <t>4.7</t>
   </si>
   <si>
     <t>4.6</t>
@@ -804,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>9.49</v>
+        <v>29.99</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
@@ -849,13 +843,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>8.449999999999999</v>
+        <v>24.99</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -866,13 +860,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>239.74</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -883,13 +877,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>34.99</v>
+        <v>33.49</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -900,13 +894,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>99.98999999999999</v>
+        <v>22.99</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -917,13 +911,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>36.99</v>
+        <v>51.98</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -934,13 +928,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>29.99</v>
+        <v>33.49</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -951,13 +945,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>27.99</v>
+        <v>25.99</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -968,10 +962,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>66.98</v>
       </c>
       <c r="D10" t="s">
         <v>136</v>
@@ -985,13 +979,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>19.99</v>
+        <v>51.99</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1002,13 +996,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>59.8</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1019,13 +1013,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>8.99</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1036,13 +1030,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>33.75</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1053,13 +1047,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15">
-        <v>49.99</v>
+        <v>44.97</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1070,13 +1064,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16">
-        <v>19.99</v>
+        <v>17.97</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1087,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>36.98</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1104,13 +1098,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>11.99</v>
+        <v>12.5</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1121,13 +1115,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19">
-        <v>13.99</v>
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1138,13 +1132,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>35.39</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1155,13 +1149,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>17.99</v>
+        <v>17.97</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1172,13 +1166,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22">
-        <v>44.99</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1189,10 +1183,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23">
-        <v>71.98999999999999</v>
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
       </c>
       <c r="D23" t="s">
         <v>136</v>
@@ -1206,13 +1200,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>21.99</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1223,13 +1217,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>35.69</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1240,16 +1234,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26">
-        <v>34.99</v>
+        <v>17.99</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1257,16 +1251,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27">
-        <v>17.99</v>
+        <v>6.97</v>
       </c>
       <c r="D27" t="s">
         <v>136</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1274,30 +1268,30 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28">
-        <v>29.99</v>
+        <v>20.99</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29">
-        <v>34.99</v>
+        <v>17.99</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1305,16 +1299,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30">
-        <v>49.99</v>
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1322,13 +1316,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>33.49</v>
       </c>
       <c r="D31" t="s">
         <v>136</v>
@@ -1339,16 +1333,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32">
-        <v>17.99</v>
+        <v>13.99</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1356,16 +1350,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C33">
-        <v>11.99</v>
+        <v>26.99</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1373,16 +1367,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>35.99</v>
+        <v>17.97</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1390,16 +1384,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>12.97</v>
+        <v>21.99</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1407,16 +1401,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>133</v>
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>24.99</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1424,16 +1418,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1441,16 +1435,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38">
-        <v>14.99</v>
+        <v>17.97</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1458,16 +1452,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C39">
-        <v>64.98999999999999</v>
+        <v>17.97</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1475,16 +1469,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40">
-        <v>31.99</v>
+        <v>8.99</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1492,16 +1486,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41">
-        <v>105.99</v>
+        <v>48.49</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1509,13 +1503,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42">
-        <v>31.99</v>
+        <v>54.99</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
@@ -1526,16 +1520,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C43">
-        <v>59.99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
+        <v>61.6</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1543,16 +1534,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C44">
-        <v>42.79</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1560,16 +1551,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C45">
-        <v>11.99</v>
+        <v>40.75</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1577,16 +1568,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C46">
-        <v>32.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1594,13 +1585,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C47">
-        <v>9.49</v>
+        <v>20.99</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
@@ -1611,16 +1602,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>27.99</v>
+        <v>13.99</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1628,16 +1619,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49">
-        <v>6.99</v>
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1645,16 +1636,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="C50">
+        <v>29.99</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1662,16 +1653,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>19.99</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1679,16 +1670,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C52">
-        <v>8.93</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1696,16 +1687,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53">
-        <v>26.98</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1713,101 +1704,101 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
         <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C55">
-        <v>17.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C56">
-        <v>21.99</v>
+        <v>17.99</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>29.98</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58">
-        <v>16.99</v>
+        <v>19.99</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>27.99</v>
+        <v>26.98</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -1815,16 +1806,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60">
-        <v>109.99</v>
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -1832,16 +1823,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="C61">
+        <v>8.970000000000001</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -1849,16 +1840,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C62">
-        <v>31.98</v>
+        <v>8.99</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -1866,16 +1857,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -1883,16 +1874,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C64">
-        <v>17.99</v>
+        <v>106.98</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -1900,16 +1891,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C65">
-        <v>17.99</v>
+        <v>27.48</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -1917,53 +1908,19 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C66">
-        <v>66.95</v>
+        <v>17.97</v>
       </c>
       <c r="D66" t="s">
         <v>137</v>
       </c>
       <c r="E66">
         <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67">
-        <v>19.99</v>
-      </c>
-      <c r="D67" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68">
-        <v>84.98999999999999</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2033,8 +1990,6 @@
     <hyperlink ref="B64" r:id="rId63"/>
     <hyperlink ref="B65" r:id="rId64"/>
     <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/product_urls.xlsx
+++ b/product_urls.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Programming\amazon-review-analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA536C7-C26B-41A7-B5E6-BC70F5B0134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
   <si>
     <t>description</t>
   </si>
@@ -37,28 +31,400 @@
     <t>page</t>
   </si>
   <si>
-    <t>LEGO 42123 Technic McLaren Senna GTR Racing Sports Collectable Model Car, Vehicle Toy Construction Set, Idea</t>
-  </si>
-  <si>
-    <t>LEGO 76196 Marvel The Avengers Advent Calendar 2021 Buildable Toys with Spider-Man and Iron Man for Kids Aged 7 Idea</t>
+    <t>LEGO Boys Ninjago Pyjamas Kids Full Length Pjs Set T-Shirt + Lounge Pants Set</t>
+  </si>
+  <si>
+    <t>LEGO 75239, bunt</t>
+  </si>
+  <si>
+    <t>LEGO The Movie 2 70841 Benny's Space Squad</t>
+  </si>
+  <si>
+    <t>LEGO 10280 Flower Bouquet, Artificial Flowers, Set for Adults, Decorative Home Accessories, Idea, Botanical Collection</t>
+  </si>
+  <si>
+    <t>LEGO 10698 Classic Large Creative Brick Box Construction Set, Toy Storage with Windows, Doors and Green Baseplate, Building Toys Xmas Gift for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 42120 Technic Rescue Hovercraft to Aircraft Model Building Kit, 2in1 Toy for Boys and Girls 8 + Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 42118 Technic Monster Jam Grave Digger Truck Toy to Off-Road Buggy Pull Back 2 in 1 Building Set, For Kids 7+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 75300 Star Wars Imperial TIE Fighter Toy with Stormtrooper and Pilot Minifigures from The Skywalker Saga</t>
+  </si>
+  <si>
+    <t>LEGO 10696 Classic Medium Creative Brick Box, Easy Kids Toy Storage, Building Set for 4 Years Old with Wheels &amp; Windows</t>
+  </si>
+  <si>
+    <t>LEGO 42116 Technic Skid Steer Loader Toy Excavator to Hot Rod Car 2 in 1 Set, Construction Vehicle Model</t>
   </si>
   <si>
     <t>LEGO 41679 Friends Forest House Toy, Treehouse Adventure Set with Mia Mini Doll and Kayak Boat Model</t>
   </si>
   <si>
+    <t>LEGO 71700 NINJAGO Legacy Jungle Raider Car with Lloyd Minifigure, Tournament of Elements Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 71746 NINJAGO Jungle Dragon Building Set, with Ninja Lloyd and Zane Minifigures, Toys for 8 + Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 41444 Friends Heartlake City Organic Café Toy with Mini Dolls &amp; Accessories, Toys for Kids 6 Years Old, Eco Education Set, Stocking Filler Idea</t>
+  </si>
+  <si>
+    <t>LEGO 75295 Star Wars Millennium Falcon Microfighter Toy with Han Solo Minifigure for 6 Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 42119 Technic Monster Jam Max-D Truck Toy to Quad Bike Pull Back 2 in 1 Building Set, Toys for Boys and Girls 7+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 42125 Technic Ferrari 488 GTE “AF Corse</t>
+  </si>
+  <si>
+    <t>LEGO 75299 Star Wars: The Mandalorian Trouble on Tatooine Building Set with Baby Yoda The Child Figure, Season 2 Playset, Stocking Filler Idea</t>
+  </si>
+  <si>
+    <t>LEGO 60283 City Great Vehicles Holiday Camper Van Toy Car for Kids 5 + Years Old, Caravan Motorhome Summer Sets</t>
+  </si>
+  <si>
+    <t>LEGO 21165 Minecraft The Bee Farm Village Toy for Boys and Girls Age 8 +, Building Set with Beekeeper and Sheep Figures</t>
+  </si>
+  <si>
+    <t>LEGO 60276 City Police Prisoner Transport Tow Truck Toy, Police Station Expansion Set</t>
+  </si>
+  <si>
     <t>LEGO 10281 Bonsai Tree Set for Adults, Home Décor DIY Projects, Creative Relaxing Activity, Unique Idea, Botanical Collection</t>
   </si>
   <si>
-    <t>https://www.amazon.co.uk/LEGO-42123-Technic-Collectible-Construction/dp/B08G4293BD/ref=sr_1_1?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-76196-tbd-LSH-29-2021/dp/B08W9GQ7MV/ref=sr_1_2?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-41679-Friends-Treehouse-Adventure/dp/B08W5FXSQJ/ref=sr_1_3?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/LEGO-10281-LEGO-10281-Creator-Expert-Bonsai-Tree-Set-for-Adults-Home-D%C3%A9cor-DIY-Projects-Botanical-Collection/dp/B08G4PCG8F/ref=sr_1_4?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1636379951&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-4</t>
+    <t>LEGO 75281 Star Wars Anakin's Jedi Interceptor Toy with R2-D2</t>
+  </si>
+  <si>
+    <t>LEGO 31117 Creator 3in1 Space Shuttle Adventure to Rocket Toy and Lunar Lander Vehicles Building Set for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 10282 adidas Originals Superstar Trainers Collectors Building Set for Adults, Display Collectible Shoe Model, Idea</t>
+  </si>
+  <si>
+    <t>LEGO 31100 Creator 3in1 Sports Car - Hot Rod - Plane Building Set, Toys for 7+ Years Old Boys and Girls</t>
+  </si>
+  <si>
+    <t>LEGO 21034 Architecture Skyline Model Building Set, London Eye, Big Ben, Tower Bridge Model Collection, Office Home Décor, Collectible Gift Idea</t>
+  </si>
+  <si>
+    <t>Captain Carter &amp; The Hydra Stomper</t>
+  </si>
+  <si>
+    <t>LEGO 21167 Minecraft The Trading Post Building Toy for Boys and Girls Age 8 +, Set with Steve, Skeleton and Llamas Figures</t>
+  </si>
+  <si>
+    <t>LEGO 11013 Classic Creative Transparent Bricks Building Set with Animals including Lion, Bird and Turtle, Toys for Kids 4+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 71736 NINJAGO Legacy Boulder Blaster Aeroplane Toy with Prison and Collectible Gold Ninja Kai Figure</t>
+  </si>
+  <si>
+    <t>LEGO 21166 Minecraft The Abandoned Mine Building Set, Zombie Cave with Slime, Steve and Spider Figures, Toy for Kids Age 7 +</t>
+  </si>
+  <si>
+    <t>LEGO 42096 Technic Porsche 911 RSR Race Car Advanced Building Set, Exclusive Collectible Model</t>
+  </si>
+  <si>
+    <t>LEGO 21319 Ideas Central Perk Friends TV Show Series with Iconic Cafe Studio and 7 Minifigures 25th Anniversary Collectors Set</t>
+  </si>
+  <si>
+    <t>LEGO 76903 Speed Champions Chevrolet Corvette C8.R Race Car and 1968 CC Racing Cars Toys for 8+ Years Old, 2 Sports Models Building Set</t>
+  </si>
+  <si>
+    <t>LEGO 21164 Minecraft The Coral Reef Building Set with Alex, 2 Brick-Build Puffer Fish and Drowned Zombie</t>
+  </si>
+  <si>
+    <t>LEGO 76898 Speed Champions Formula E Panasonic Jaguar Racing GEN2 car &amp; Jaguar I-PACE eTROPHY Race Cars Set</t>
+  </si>
+  <si>
+    <t>LEGO 76382 Harry Potter Hogwarts Moment: Transfiguration Class Set, Collectable Book Travel Toy Age 8 +, Stocking Filler Gift Idea for Kids</t>
+  </si>
+  <si>
+    <t>LEGO 42110 Technic Land Rover Defender Off Road 4x4 Car, Exclusive Model Advanced Building Kit, Collectable Toys Set</t>
+  </si>
+  <si>
+    <t>LEGO 76387 Harry Potter Hogwarts: Fluffy Encounter Castle Toy Building Set, with 20th Anniversary Golden Minifigure &amp; 3-Headed Dog Figure</t>
+  </si>
+  <si>
+    <t>LEGO 76193 Marvel The Guardians’ Ship Large Building Set, Avengers Spaceship Model with Thor &amp; Star-Lord Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 21044 Architecture Paris Model Building Set with Eiffel Tower and The Louvre Model, Skyline Collection, Office Home Décor, Collectible Gift Idea</t>
+  </si>
+  <si>
+    <t>LEGO 31112 Creator 3 in 1 Wild Lion, Ostrich and Warthog Set, Buildable Animal Figures, Toys for Kids 7+ Years old</t>
+  </si>
+  <si>
+    <t>LEGO 60253 City Great Vehicles Ice Cream Van Truck Toy with Skater and Dog Figure, for Kids 5+ Year Old</t>
+  </si>
+  <si>
+    <t>LEGO 21042 Architecture Statue of Liberty Model Building Set, Collectable New York Souvenir Gift, Home Décor, Creative Activity</t>
+  </si>
+  <si>
+    <t>LEGO 76383 Harry Potter Hogwarts Moment: Potions Class, Collectible Book Toy for Kids, Travel Case, Portable Playset Gift Idea</t>
+  </si>
+  <si>
+    <t>LEGO 42103 Technic Dragster Racing Car Toy to Hot Rod 2in1 Set with Pull-Back Motor, Drag Racer Vehicles Collection</t>
+  </si>
+  <si>
+    <t>LEGO 31111 Creator 3 in 1 Cyber Drone Building Set with Cyber Mech and Scooter, Space Toys for Kids 6+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 71360 Super Mario Adventures Starter Course Set, Buildable Game with Interactive Toy Figure</t>
+  </si>
+  <si>
+    <t>LEGO 71750 NINJAGO Lloyd’s Hydro Mech Action Figure Underwater Building Set, Ninja Toy for Kids with Lloyd Minifigure</t>
+  </si>
+  <si>
+    <t>LEGO 92176 Ideas NASA Apollo Saturn V Space Rocket and Vehicles, Spaceship Collectors Building Set with Display Stand [Amazon Exclusive]</t>
+  </si>
+  <si>
+    <t>LEGO 75297 Star Wars Resistance X-Wing Starfighter Toy for Toddlers 4 + Years Old with Poe Dameron Minifigure and BB-8 Droid</t>
+  </si>
+  <si>
+    <t>LEGO 75257 Star Wars Millennium Falcon Starship Construction Set, with Finn, Chewbacca, Lando Calrissian, Boolio, C-3PO, R2-D2 and D-O, The Rise of Skywalker Collection</t>
+  </si>
+  <si>
+    <t>LEGO 71745 NINJAGO Lloyd’s Jungle Chopper Bike Building Set, Motorbike Toy with Lloyd and Nya Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 76180 DC Batman vs. The Joker: Batmobile Chase &amp; Hot Rod, Superhero Toy Cars Set &amp; 76189 Marvel Captain America and Hydra Face-Off Building Set, Super Hero Toy for Kids Age 4 + with Motorbike</t>
+  </si>
+  <si>
+    <t>LEGO 60281 City Fire Rescue Helicopter Toy with Motorbike, Firefighter and Pilot Minifigures, For Kids 5+ Years Old, Gift Idea</t>
+  </si>
+  <si>
+    <t>LEGO 31116 Creator 3 in 1 Safari Wildlife Tree House, Catamaran, Biplane Toy, Building Set with Boat, Plane and Toy Lion for Animal Fans</t>
+  </si>
+  <si>
+    <t>LEGO 75298 Star Wars AT-AT vs. Tauntaun Microfighters  Building Set with Luke Skywalker and AT-AT Driver Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 21171 Minecraft The Horse Stable Farm Toy with Skeleton Horseman Figure, Toys for Kids 8+ Years Old</t>
+  </si>
+  <si>
+    <t>LEGO 10274 Creator Expert Ghostbusters ECTO-1 Car Kit, Large Set for Adults, Collectable Model for Display, Idea</t>
+  </si>
+  <si>
+    <t>LEGO 76386 Harry Potter Hogwarts: Polyjuice Potion Mistake Castle Set with 20th Anniversary Golden Minifigure and Transforming Minifigures</t>
+  </si>
+  <si>
+    <t>LEGO 76195 Marvel Spider-Man’s Drone Duel Building Toy for Kids Age 7 , Superhero Birthday Idea</t>
+  </si>
+  <si>
+    <t>LEGO 31088 Creator 3in1 Deep Sea Creatures: Shark, Crab, Squid or Angler Fish, Sea Animals Figures Set, Toys for Children 7+ Years Old</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Ninjago-Pyjamas-Length-T-Shirt/dp/B09KC2NRPP/ref=sr_1_1_sspa?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-1-spons&amp;psc=1&amp;smid=A3QBRVOM1KPYI6&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyN0haWFhBUlRCVUoyJmVuY3J5cHRlZElkPUEwODk4NDA0M0RMTlFRUVJQTFBSJmVuY3J5cHRlZEFkSWQ9QTA5NjU3MzQyTkFDTkk4R1NXSFFOJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Star-Wars-TM-75239-Colourful/dp/B07FP76GMV/ref=sr_1_2_sspa?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-2-spons&amp;psc=1&amp;smid=A3KWCKTVJTCWJK&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyN0haWFhBUlRCVUoyJmVuY3J5cHRlZElkPUEwODk4NDA0M0RMTlFRUVJQTFBSJmVuY3J5cHRlZEFkSWQ9QTA3MDQ4NTkxNTBMRTBOR0c5QTI0JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-70841-Bennys-Building-Construction/dp/B07FP6QNPX/ref=sr_1_3_sspa?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-3-spons&amp;psc=1&amp;smid=A53OF6US7B234&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyN0haWFhBUlRCVUoyJmVuY3J5cHRlZElkPUEwODk4NDA0M0RMTlFRUVJQTFBSJmVuY3J5cHRlZEFkSWQ9QTA4MTMxOTBUVDlVUDNNSjlISlMmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10280-LEGO-10280-Creator-Expert-Flower-Bouquet-Artificial-Flowers-Botanical-Collection/dp/B08G4KJGG3/ref=sr_1_4?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10698-Creative-Construction-Colourful/dp/B00PY3EYQO/ref=sr_1_5?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42120-Hovercraft-Aircraft-Building/dp/B08G4SR6C8/ref=sr_1_6?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42118-Technic-Off-Road-Building/dp/B08G4K8Y1F/ref=sr_1_7?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75300-Stormtrooper-Minifigures-Skywalker/dp/B08G444BQH/ref=sr_1_8?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10696-Classic-Creative-Storage/dp/B00NVDP3ZU/ref=sr_1_9?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42116-Technic-Excavator-Construction/dp/B08G4TK5WS/ref=sr_1_10?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41679-Friends-Treehouse-Adventure/dp/B08W5FXSQJ/ref=sr_1_11?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Ninjago-71700-LEGO-71700-NINJAGO-Legacy-Jungle-Raider-Car-with-Lloyd-Minifigure-Tournament-of-Elements-Building-Set/dp/B07W6QBJ84/ref=sr_1_12?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71746-NINJAGO-Building-Minifigures/dp/B08G46PN5C/ref=sr_1_13?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-41444-Friends-Heartlake-Education/dp/B08G44DS1X/ref=sr_1_14?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75295-Millennium-Microfighter-Minifigure/dp/B08G4H3SQG/ref=sr_1_15?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42119-Technic-Monster-Building/dp/B08G4D31L2/ref=sr_1_16?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42125-Exclusive-Collectible-Collectors/dp/B08G4PB494/ref=sr_1_17?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75299-Star-Wars-Mandalorian/dp/B08G4D1PBN/ref=sr_1_18?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60283-Vehicles-Motorhome-Holidays/dp/B08G4M8J87/ref=sr_1_19?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21165-Minecraft-Building-Beekeeper/dp/B085WV8R86/ref=sr_1_20?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60276-Prisoner-Transport-Expansion/dp/B08G4PBFLQ/ref=sr_1_21?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10281-LEGO-10281-Creator-Expert-Bonsai-Tree-Set-for-Adults-Home-D%C3%A9cor-DIY-Projects-Botanical-Collection/dp/B08G4PCG8F/ref=sr_1_22?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Star-Wars-75281-tbd-IP-19-2020-Multicolored/dp/B0813R8PHT/ref=sr_1_23?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-23</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31117-Adventure-Vehicles-Building/dp/B08WX3LY4P/ref=sr_1_24?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-24</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10282-Originals-Collectors-Collectible/dp/B08WXB3GDK/ref=sr_1_25?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31100-Creator-3in1-Sports-Car-Hot-Rod-Plane-Building-Set-Toys-for-7-Years-Old-Boys-and-Girls/dp/B07W7TKRJ2/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21034-Architecture-Skyline-Building/dp/B01J41MPF8/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912492&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Captain-Carter-The-Hydra-Stomper/dp/B098FPTNNX/ref=sr_1_25_sspa?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-25-spons&amp;psc=1&amp;smid=A1YV2YYQ6BTRC3&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzUTA3WkpJNUNCWUdOJmVuY3J5cHRlZElkPUEwMjEyMDA4SE1aREVFN1FPM1c5JmVuY3J5cHRlZEFkSWQ9QTA0NDkzMDEyR0VUWFpNRkZSTjU0JndpZGdldE5hbWU9c3BfYXRmX25leHQmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21167-Minecraft-Building-Skeleton/dp/B085WV367W/ref=sr_1_26?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-11013-Creative-Transparent-Building/dp/B08G4KZPG4/ref=sr_1_27?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71736-NINJAGO-Aeroplane-Collectible/dp/B08G4HBJ1J/ref=sr_1_28?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-28</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21166-Minecraft-Abandoned-Building/dp/B085WV4WST/ref=sr_1_29?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-29</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/42096-Technic-Building-Realistic-Construction/dp/B07FP6QNQ7/ref=sr_1_30?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-30</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21319-Collectors-Designed-September/dp/B07VGGF8DP/ref=sr_1_31?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-31</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76903-Champions-Chevrolet-Corvette/dp/B08WWZJ8G4/ref=sr_1_32?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-32</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21164-Minecraft-Building-Brick-Build/dp/B08G4SZS66/ref=sr_1_33?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-33</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76898-LEGO-76898-Speed-Champions-Formula-E-Panasonic-Jaguar-Racing-GEN2-car-and-Jaguar-I-PACE-eTROPHY-Race-Cars-Set/dp/B07W5PXDYZ/ref=sr_1_34?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76382-Potter-Hogwarts-Moment/dp/B08G4HPRCR/ref=sr_1_35?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42110-Toy-Multicolour/dp/B07P2GQDQ6/ref=sr_1_36?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76387-Harry-Potter-Hogwarts/dp/B08W8LDL1F/ref=sr_1_37?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-37</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Guardians-Spaceship-Star-Lord-Minifigures/dp/B098425PT1/ref=sr_1_38?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-38</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21044-Architecture-Collection-Colourful/dp/B07FNN147J/ref=sr_1_39?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-39</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31112-Creator-Ostrich-Warthog/dp/B08G4P2B7B/ref=sr_1_40?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60253-LEGO-60253-City-Great-Vehicles-Ice-Cream-Truck-Toy-with-Skater-and-Dog-Figure-for-Kids-5-Year-Old/dp/B07W4KSKXZ/ref=sr_1_41_0o_morri?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-41</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21042-Architecture-Liberty-Building/dp/B0765C5SX5/ref=sr_1_42?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-42</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76383-Potter-Hogwarts-Moment/dp/B08G4CN5YD/ref=sr_1_43?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-43</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-42103-LEGO-42103-Technic-Dragster-Racing-Car-Toy-to-Hot-Rod-2-in-1-Set-with-Pull-Back-Motor-Drag-Racer-Vehicles-Collection/dp/B07W7V6R6Y/ref=sr_1_44?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-44</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31111-Creator-Building-Scooter/dp/B08G4MH27V/ref=sr_1_45?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-45</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71360-Adventures-Interactive-Buildable/dp/B082WDQHZQ/ref=sr_1_46?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-46</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/NINJAGO-Lloyds-Underwater-Building-Minifigure/dp/B09NHSD2BY</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-92176-LEGO-92176-Ideas-NASA-Apollo-Saturn-V-Space-Rocket-and-Vehicles-Spaceship-Collectors-Building-Set-with-Display-Stand/dp/B08GNXNPR6/ref=sr_1_48?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-48</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75297-Resistance-Starfighter-Minifigure/dp/B08G4W62V8/ref=sr_1_49?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912497&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Star-Wars-TM-75239-Colourful/dp/B07FP76GMV/ref=sr_1_49_sspa?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-49-spons&amp;psc=1&amp;smid=A3KWCKTVJTCWJK&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMzFQTE8wVDRDOThSJmVuY3J5cHRlZElkPUEwMzg3MDMyMlVZWlYxNUFBQUhPTSZlbmNyeXB0ZWRBZElkPUEwNzA0ODU5MTUwTEUwTkdHOUEyNCZ3aWRnZXROYW1lPXNwX2F0Zl9uZXh0JmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Captain-Carter-The-Hydra-Stomper/dp/B098FPTNNX/ref=sr_1_50_sspa?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-50-spons&amp;psc=1&amp;smid=A1YV2YYQ6BTRC3&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMzFQTE8wVDRDOThSJmVuY3J5cHRlZElkPUEwMzg3MDMyMlVZWlYxNUFBQUhPTSZlbmNyeXB0ZWRBZElkPUEwNDQ5MzAxMkdFVFhaTUZGUk41NCZ3aWRnZXROYW1lPXNwX2F0Zl9uZXh0JmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-Millennium-Construction-Calrissian-Collection/dp/B09844PRPT/ref=sr_1_51?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-51</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-71745-Building-Motorbike-Minifigures/dp/B08G4GVRD8/ref=sr_1_52?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76180-Batman-vs-Joker/dp/B09JSFWH2Q/ref=sr_1_53?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-60281-Helicopter-Firefighter-Minifigures/dp/B08G4D3P1T/ref=sr_1_54?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31116-Wildlife-Catamaran-Building/dp/B08G59HZNY/ref=sr_1_55?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-75298-Microfighters-Skywalker-Minifigures/dp/B08G4CNSJQ/ref=sr_1_56?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-21171-Minecraft-Skeleton-Horseman/dp/B08WWX6BYY/ref=sr_1_57?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-10274-LEGO-10274-Creator-Expert-Ghostbusters-ECTO-1-Car-Large-Set-for-Adults-Collectible-Model-for-Display/dp/B08G4PD84J/ref=sr_1_58?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-58</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76386-Harry-Potter-Hogwarts/dp/B08W8BGKH5/ref=sr_1_59?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-59</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-76195-tbd-LSH-2021/dp/B08W9HBYV7/ref=sr_1_60?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-60</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/LEGO-31088-Creatures-Building-Colourful/dp/B07FNS6J7R/ref=sr_1_61?crid=1SDTYPYXM70YV&amp;keywords=lego&amp;qid=1639912504&amp;refinements=p_89%3Alego&amp;rnid=1632651031&amp;s=kids&amp;sprefix=my+li%2Ctoys%2C163&amp;sr=1-61</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.9</t>
   </si>
   <si>
     <t>4.8</t>
@@ -67,8 +433,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +510,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,27 +588,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,24 +622,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,16 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,263 +821,1172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>29.99</v>
+        <v>14.95</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>24.99</v>
+        <v>23.99</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>13.98</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>35.99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>33.99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>29.99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>13.99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>33.49</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>24.99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>8.99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>16.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>7.2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15">
+        <v>19.99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>7.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>14.4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>114.99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>21.99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>13.49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>17.99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>11.24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>38.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25">
+        <v>44.99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>40.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>43.49</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>17.99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31">
+        <v>19.99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>17.97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35">
+        <v>52.95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>34.99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38">
+        <v>34.99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39">
+        <v>21.99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40">
+        <v>114.99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42">
+        <v>106.98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43">
+        <v>35.23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44">
+        <v>14.97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46">
+        <v>70.42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47">
+        <v>22.4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48">
+        <v>17.99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>7.5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50">
+        <v>29.99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51">
+        <v>14.4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52">
+        <v>109.99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>17.99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>23.99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>43.49</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56">
+        <v>134.99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57">
+        <v>14.4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58">
+        <v>33.97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59">
+        <v>17.5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60">
+        <v>29.99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61">
+        <v>16.2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>17.99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63">
+        <v>159.75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>14.4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
